--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/90995999/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/90995999/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9770302772521973</v>
+        <v>0.9532201290130615</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9768378734588623</v>
+        <v>0.9529200792312622</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9754486680030823</v>
+        <v>0.9506048560142517</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6541959643363953</v>
+        <v>0.4710983037948608</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9782384634017944</v>
+        <v>0.955230712890625</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9790888428688049</v>
+        <v>0.9566531181335449</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9789440631866455</v>
+        <v>0.9564257860183716</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9784591197967529</v>
+        <v>0.9555213451385498</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9789440631866455</v>
+        <v>0.9564257860183716</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5207352042198181</v>
+        <v>0.3793396353721619</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9806056618690491</v>
+        <v>0.9593100547790527</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9205625653266907</v>
+        <v>0.8275433778762817</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9779239296913147</v>
+        <v>0.9546974897384644</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9779850244522095</v>
+        <v>0.9548023343086243</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9782592058181763</v>
+        <v>0.9552629590034485</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9783145785331726</v>
+        <v>0.9553295969963074</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2646463811397552</v>
+        <v>0.3278840184211731</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9795714616775513</v>
+        <v>0.9574818015098572</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9799312949180603</v>
+        <v>0.9580258131027222</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9757810235023499</v>
+        <v>0.9511893391609192</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9780363440513611</v>
+        <v>0.954878568649292</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9795855283737183</v>
+        <v>0.9575062394142151</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9800415635108948</v>
+        <v>0.9582937955856323</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6528189778327942</v>
+        <v>0.4694865345954895</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2552914619445801</v>
+        <v>0.3210606575012207</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9770738482475281</v>
+        <v>0.9532625079154968</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9768378734588623</v>
+        <v>0.9529200792312622</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9759072661399841</v>
+        <v>0.9513718485832214</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9782530665397644</v>
+        <v>0.955243706703186</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.976898193359375</v>
+        <v>0.9529959559440613</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9791988730430603</v>
+        <v>0.9568206071853638</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8853392601013184</v>
+        <v>0.7422772645950317</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.921143114566803</v>
+        <v>0.8282549381256104</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9163128733634949</v>
+        <v>0.8203237652778625</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9791430234909058</v>
+        <v>0.9567371010780334</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9178274869918823</v>
+        <v>0.8229124546051025</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9803240895271301</v>
+        <v>0.9587982296943665</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9173991680145264</v>
+        <v>0.8230143189430237</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8857285976409912</v>
+        <v>0.7436314821243286</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9803355932235718</v>
+        <v>0.9588139057159424</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8834905028343201</v>
+        <v>0.7776591777801514</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8899611234664917</v>
+        <v>0.7482872605323792</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9186501502990723</v>
+        <v>0.82393878698349</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8925032019615173</v>
+        <v>0.7519325017929077</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8838526010513306</v>
+        <v>0.7407957315444946</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6351819038391113</v>
+        <v>0.4564100205898285</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8818252682685852</v>
+        <v>0.7379239201545715</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9800794720649719</v>
+        <v>0.9583640098571777</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.886914074420929</v>
+        <v>0.7443279623985291</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8821094632148743</v>
+        <v>0.7387663722038269</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9767048358917236</v>
+        <v>0.9526511430740356</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.886914074420929</v>
+        <v>0.7443279623985291</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8871726989746094</v>
+        <v>0.7444689869880676</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9790430068969727</v>
+        <v>0.9565877914428711</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9793238639831543</v>
+        <v>0.9570469856262207</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9805480241775513</v>
+        <v>0.9591810703277588</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9162638187408447</v>
+        <v>0.8202274441719055</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9802384376525879</v>
+        <v>0.9586392045021057</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9786020517349243</v>
+        <v>0.9558191299438477</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9791982173919678</v>
+        <v>0.9568315148353577</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9801656007766724</v>
+        <v>0.9585059285163879</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9187579154968262</v>
+        <v>0.8241410851478577</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4804538488388062</v>
+        <v>0.4234452843666077</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.916352391242981</v>
+        <v>0.8203577995300293</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.916352391242981</v>
+        <v>0.8203577995300293</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9187991619110107</v>
+        <v>0.8241682648658752</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.916352391242981</v>
+        <v>0.8203577995300293</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7264288663864136</v>
+        <v>0.5813255310058594</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9790719151496887</v>
+        <v>0.9566252827644348</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9181949496269226</v>
+        <v>0.8237786293029785</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9742100238800049</v>
+        <v>0.9486750364303589</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9177592992782593</v>
+        <v>0.8228636980056763</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9780583381652832</v>
+        <v>0.9549055099487305</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9782462120056152</v>
+        <v>0.9552341103553772</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9177592992782593</v>
+        <v>0.8228636980056763</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9769058227539062</v>
+        <v>0.9529956579208374</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9177592992782593</v>
+        <v>0.8228636980056763</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.97957843542099</v>
+        <v>0.9575042724609375</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.917859673500061</v>
+        <v>0.8229705691337585</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9769033789634705</v>
+        <v>0.95301753282547</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.917859673500061</v>
+        <v>0.8229705691337585</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9705806374549866</v>
+        <v>0.9429559707641602</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9705806374549866</v>
+        <v>0.9429559707641602</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9805482625961304</v>
+        <v>0.9592070579528809</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.918580174446106</v>
+        <v>0.8243843913078308</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9795477390289307</v>
+        <v>0.9573681354522705</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9177782535552979</v>
+        <v>0.8229191899299622</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9768713116645813</v>
+        <v>0.9529741406440735</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9780264496803284</v>
+        <v>0.9548684358596802</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9780232310295105</v>
+        <v>0.9548600912094116</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9780435562133789</v>
+        <v>0.9548938870429993</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9780178666114807</v>
+        <v>0.9548525810241699</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.978015124797821</v>
+        <v>0.9548491835594177</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9780364632606506</v>
+        <v>0.9548757076263428</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9806568026542664</v>
+        <v>0.9593494534492493</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2629601955413818</v>
+        <v>0.2145441770553589</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9799984097480774</v>
+        <v>0.9581945538520813</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9770054817199707</v>
+        <v>0.9531580805778503</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9758598208427429</v>
+        <v>0.9512931704521179</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9796503782272339</v>
+        <v>0.9576127529144287</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6542618870735168</v>
+        <v>0.4698210656642914</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8863940238952637</v>
+        <v>0.7445826530456543</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.978243350982666</v>
+        <v>0.9552214741706848</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7366134524345398</v>
+        <v>0.5924263000488281</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9758874773979187</v>
+        <v>0.951357901096344</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8908303380012512</v>
+        <v>0.7494851350784302</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6368257999420166</v>
+        <v>0.4558991491794586</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9770963788032532</v>
+        <v>0.9533262848854065</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9768378734588623</v>
+        <v>0.9529200792312622</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8853845000267029</v>
+        <v>0.7423227429389954</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8899312615394592</v>
+        <v>0.7483494281768799</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9197052717208862</v>
+        <v>0.8261358141899109</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9801739454269409</v>
+        <v>0.9585208296775818</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9197114109992981</v>
+        <v>0.8262041807174683</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9705077409744263</v>
+        <v>0.9428520798683167</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9738482236862183</v>
+        <v>0.9480866193771362</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6910097599029541</v>
+        <v>0.55455082654953</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9789025187492371</v>
+        <v>0.9563406705856323</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9768378734588623</v>
+        <v>0.9529200792312622</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7265067100524902</v>
+        <v>0.581947922706604</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9801009893417358</v>
+        <v>0.958416223526001</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7265067100524902</v>
+        <v>0.581947922706604</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9801009893417358</v>
+        <v>0.958416223526001</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7265067100524902</v>
+        <v>0.581947922706604</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9798596501350403</v>
+        <v>0.9579798579216003</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9772174954414368</v>
+        <v>0.9533661603927612</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9768378734588623</v>
+        <v>0.9529200792312622</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9789800643920898</v>
+        <v>0.9564103484153748</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9757404923439026</v>
+        <v>0.9510924816131592</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9738067388534546</v>
+        <v>0.947997510433197</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8775441646575928</v>
+        <v>0.7313172221183777</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9782878756523132</v>
+        <v>0.9552934765815735</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9780027270317078</v>
+        <v>0.9548156261444092</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.97911536693573</v>
+        <v>0.9567030668258667</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9699604511260986</v>
+        <v>0.9420095086097717</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9782636761665344</v>
+        <v>0.9552666544914246</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9738506078720093</v>
+        <v>0.9480626583099365</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9738595485687256</v>
+        <v>0.9480778574943542</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9768568873405457</v>
+        <v>0.9529244303703308</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5631735324859619</v>
+        <v>0.395063191652298</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9768378734588623</v>
+        <v>0.9529200792312622</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9164211750030518</v>
+        <v>0.820490837097168</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9786150455474854</v>
+        <v>0.9558607339859009</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9164211750030518</v>
+        <v>0.820490837097168</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9704943895339966</v>
+        <v>0.942858874797821</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7264288663864136</v>
+        <v>0.5813255310058594</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9770234227180481</v>
+        <v>0.9531968832015991</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9176748394966125</v>
+        <v>0.8227342963218689</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7289157509803772</v>
+        <v>0.5835089087486267</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9768378734588623</v>
+        <v>0.9529200792312622</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.6287378668785095</v>
+        <v>0.446713000535965</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9803277850151062</v>
+        <v>0.9588150978088379</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6410364508628845</v>
+        <v>0.4598117470741272</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9799811244010925</v>
+        <v>0.9581856727600098</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6414831280708313</v>
+        <v>0.460175096988678</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9785982966423035</v>
+        <v>0.9558327198028564</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6415422558784485</v>
+        <v>0.4601549506187439</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9789527654647827</v>
+        <v>0.9564231038093567</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9190903306007385</v>
+        <v>0.8252524733543396</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9771440625190735</v>
+        <v>0.9533891677856445</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9705559015274048</v>
+        <v>0.9432332515716553</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.973854660987854</v>
+        <v>0.9480864405632019</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9162657260894775</v>
+        <v>0.8202565312385559</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9805788397789001</v>
+        <v>0.9592468738555908</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9706203937530518</v>
+        <v>0.9430414438247681</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8782095313072205</v>
+        <v>0.7331567406654358</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9195328950881958</v>
+        <v>0.8257118463516235</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9768378734588623</v>
+        <v>0.9529200792312622</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8782095313072205</v>
+        <v>0.7331567406654358</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.918609619140625</v>
+        <v>0.8242990374565125</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9768378734588623</v>
+        <v>0.9529200792312622</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9738146662712097</v>
+        <v>0.9480113387107849</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9738301634788513</v>
+        <v>0.9480340480804443</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9738146662712097</v>
+        <v>0.9480113387107849</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9738146662712097</v>
+        <v>0.9480113387107849</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9738301634788513</v>
+        <v>0.9480340480804443</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.977044403553009</v>
+        <v>0.9532410502433777</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9742354154586792</v>
+        <v>0.9487172365188599</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9782732725143433</v>
+        <v>0.9552984833717346</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9797704219818115</v>
+        <v>0.9578119516372681</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9791009426116943</v>
+        <v>0.956680953502655</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7341423630714417</v>
+        <v>0.5901103019714355</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9800726175308228</v>
+        <v>0.9583607316017151</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9803382158279419</v>
+        <v>0.9588332772254944</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9793667197227478</v>
+        <v>0.9571605920791626</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9789172410964966</v>
+        <v>0.9563767313957214</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9770997166633606</v>
+        <v>0.9533221125602722</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9780001044273376</v>
+        <v>0.9548267126083374</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.978015124797821</v>
+        <v>0.9548572301864624</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2525407671928406</v>
+        <v>0.2044830173254013</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9791551232337952</v>
+        <v>0.9567636251449585</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9783070087432861</v>
+        <v>0.9553295373916626</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7262399792671204</v>
+        <v>0.582050085067749</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8864556550979614</v>
+        <v>0.7439740300178528</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9800262451171875</v>
+        <v>0.9582836627960205</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9789228439331055</v>
+        <v>0.9563708305358887</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9793055653572083</v>
+        <v>0.9570274949073792</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9795899391174316</v>
+        <v>0.957511842250824</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9174399971961975</v>
+        <v>0.822414219379425</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9796046018600464</v>
+        <v>0.9575226306915283</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9796320796012878</v>
+        <v>0.9575687646865845</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9782821536064148</v>
+        <v>0.9552851319313049</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8783488869667053</v>
+        <v>0.7334175705909729</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9797075986862183</v>
+        <v>0.9577175974845886</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9738057255744934</v>
+        <v>0.9480190277099609</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.2606055736541748</v>
+        <v>0.2132785767316818</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.974200963973999</v>
+        <v>0.9486380219459534</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.2786137759685516</v>
+        <v>0.3395325839519501</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9782195091247559</v>
+        <v>0.9551975727081299</v>
       </c>
     </row>
   </sheetData>
